--- a/biology/Zoologie/Bibio_fusiformis/Bibio_fusiformis.xlsx
+++ b/biology/Zoologie/Bibio_fusiformis/Bibio_fusiformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibio fusiformis est une espèce fossile d'insectes diptères de la famille des Bibionidae.
 </t>
@@ -511,17 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bibio fusiformis est décrite en 1849 par le naturaliste suisse Oswald Heer (1809-1883)[1],[2].
-Fossiles
-Selon Paleobiology Database en 2023, l'espèce est représentée par cinq collections[2] :
-Miocène, quatre d'Allemagne, toutes les quatre d'Œningen dans le Bade-Wurtemberg, collection Von Seyfried, collection Carlsruhe et Zurich collection, décrites en 1849 par Oswald Heer[1], collection Lavater'schen, décrite en 1847 par Oswald Heer[3] ;
-Oligocène, une de France, d'Aix-en-Provence dans les Bouches-du-Rhône, décrite en 1937 par le paléontologue français Nicolas Théobald[4],[2].
-Étymologie
-L'épithète spécifique « fusiformis » signifie en latin « fusiforme » ou « en forme de fuseau ».
-Citations
-L'espèce est citée en 1856 par Oswald Heer[5], en 1931 par Alexander Pongrácz (d)[6], en 1935 par les paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981)[7], en 1937 par Nicolas Théobald[4], et en 2014 par John Skartveit et Milena Pika (d)[8],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bibio fusiformis est décrite en 1849 par le naturaliste suisse Oswald Heer (1809-1883),.
 </t>
         </is>
       </c>
@@ -547,20 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : 
-« Échant. : A91 Inst. Géol. Lyon.
-Thorax noir, abdomen brun noir, ailes hyalines. Tête manque. Thorax ovale, dos renflé. Abdomen assez gros, un peu plus large que le thorax, subcylindrique, brusquement rétréci à l'apex, le dernier segment porte deux lamelles appartenant aux organes génitaux ♀. Pattes claires, extrémités des différents articles de teinte brune ; tibias II et III avec deux éperons, deux griffes à l'extrémité du tarse. Balanciers bruns, tige courte, massue arrondie ; ailes atteignant à peine l'extrémité de l'abdomen ; nervation de type Plecia (v. figure) ; microtriches bien visibles dans les cellules, cils courts sur C, structure trachéenne visible sur R, Rs, M (v. figure). »[4].
-Dimensions
-Le thorax a une longueur de 2,5 mm et une largeur de 2 mm, l'abdomen a une longueur de 5,5 mm et une largeur de 2,2 mm, l'aile a une longueur de 6 mm et une largeur de 2,2 mm[4].
-Affinités
-« Par la forme du corps et ses dimensions, cet échantillon se rapproche de B. fusiformis Heer d'Œningen, mais cet auteur ne décrit pas la nervation des ailes : il n'est donc pas possible d'identifier l'Insecte d'Aix avec celui d'Œningen. Heer signale sans doute l'existence de cette espèce à Aix. »[4].
-</t>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, l'espèce est représentée par cinq collections :
+Miocène, quatre d'Allemagne, toutes les quatre d'Œningen dans le Bade-Wurtemberg, collection Von Seyfried, collection Carlsruhe et Zurich collection, décrites en 1849 par Oswald Heer, collection Lavater'schen, décrite en 1847 par Oswald Heer ;
+Oligocène, une de France, d'Aix-en-Provence dans les Bouches-du-Rhône, décrite en 1937 par le paléontologue français Nicolas Théobald,.</t>
         </is>
       </c>
     </row>
@@ -585,13 +591,204 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique « fusiformis » signifie en latin « fusiforme » ou « en forme de fuseau ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est citée en 1856 par Oswald Heer, en 1931 par Alexander Pongrácz (d), en 1935 par les paléontologues français Louis Émile Piton (1909-1945) et Nicolas Théobald (1903-1981), en 1937 par Nicolas Théobald, et en 2014 par John Skartveit et Milena Pika (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Échant. : A91 Inst. Géol. Lyon.
+Thorax noir, abdomen brun noir, ailes hyalines. Tête manque. Thorax ovale, dos renflé. Abdomen assez gros, un peu plus large que le thorax, subcylindrique, brusquement rétréci à l'apex, le dernier segment porte deux lamelles appartenant aux organes génitaux ♀. Pattes claires, extrémités des différents articles de teinte brune ; tibias II et III avec deux éperons, deux griffes à l'extrémité du tarse. Balanciers bruns, tige courte, massue arrondie ; ailes atteignant à peine l'extrémité de l'abdomen ; nervation de type Plecia (v. figure) ; microtriches bien visibles dans les cellules, cils courts sur C, structure trachéenne visible sur R, Rs, M (v. figure). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thorax a une longueur de 2,5 mm et une largeur de 2 mm, l'abdomen a une longueur de 5,5 mm et une largeur de 2,2 mm, l'aile a une longueur de 6 mm et une largeur de 2,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Par la forme du corps et ses dimensions, cet échantillon se rapproche de B. fusiformis Heer d'Œningen, mais cet auteur ne décrit pas la nervation des ailes : il n'est donc pas possible d'identifier l'Insecte d'Aix avec celui d'Œningen. Heer signale sans doute l'existence de cette espèce à Aix. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_fusiformis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les larves de Bibio grandissent dans les zones herbeuses et sont des herbivores et des charognards se nourrissant de végétation morte ou de racines de plantes vivantes. Certaines espèces se retrouvent dans le compost[9]. Dans certaines régions, les mouches Bibio visitent régulièrement les fleurs et il est suggéré que ce sont des pollinisateurs de plusieurs espèces végétales[10],[11], telles que Heracleum sphondylium et Hieracium pilosella[12].
+Les larves de Bibio grandissent dans les zones herbeuses et sont des herbivores et des charognards se nourrissant de végétation morte ou de racines de plantes vivantes. Certaines espèces se retrouvent dans le compost. Dans certaines régions, les mouches Bibio visitent régulièrement les fleurs et il est suggéré que ce sont des pollinisateurs de plusieurs espèces végétales telles que Heracleum sphondylium et Hieracium pilosella.
 </t>
         </is>
       </c>
